--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-18.xlsx
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -2909,13 +2912,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2935,13 +2938,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2961,17 +2964,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2979,7 +2982,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2987,17 +2990,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3013,13 +3016,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3039,17 +3042,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3065,17 +3068,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3091,17 +3094,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>153.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3123,11 +3126,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>60</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3149,7 +3152,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3169,13 +3172,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3195,17 +3198,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3221,17 +3224,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3247,17 +3250,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>225.59999999999999</v>
+        <v>58</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3265,7 +3268,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3273,17 +3276,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>45</v>
+        <v>225.59999999999999</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3305,11 +3308,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3325,17 +3328,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>73.319999999999993</v>
+        <v>124</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3357,11 +3360,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>23</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3377,17 +3380,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>45.5</v>
+        <v>23</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3403,17 +3406,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3429,17 +3432,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3447,7 +3450,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3455,17 +3458,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3481,17 +3484,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3507,13 +3510,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3525,7 +3528,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3533,17 +3536,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3559,13 +3562,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3585,17 +3588,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3611,17 +3614,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.98999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3629,7 +3632,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3637,17 +3640,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3663,17 +3666,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3689,17 +3692,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3715,17 +3718,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3733,7 +3736,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3741,13 +3744,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3767,17 +3770,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3793,17 +3796,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3811,7 +3814,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3819,13 +3822,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3837,7 +3840,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3845,17 +3848,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3863,7 +3866,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3871,17 +3874,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3889,7 +3892,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3897,17 +3900,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3923,13 +3926,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3949,51 +3952,77 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="K116" s="11">
-        <v>6318</v>
-      </c>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="12">
+    <row r="116" ht="24.75" customHeight="1">
+      <c r="A116" s="6">
+        <v>113</v>
+      </c>
+      <c t="s" r="B116" s="7">
         <v>153</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c t="s" r="F117" s="13">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c t="s" r="H116" s="8">
+        <v>148</v>
+      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9">
+        <v>40</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c r="N116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" ht="26.25" customHeight="1">
+      <c r="K117" s="11">
+        <v>6356</v>
+      </c>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="12">
         <v>154</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14"/>
-      <c t="s" r="I117" s="15">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c t="s" r="F118" s="13">
         <v>155</v>
       </c>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c t="s" r="I118" s="15">
+        <v>156</v>
+      </c>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="350">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4337,10 +4366,13 @@
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="I117:N117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="I118:N118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
